--- a/funi-platform-lshc-web/src/main/webapp/temp.xlsx
+++ b/funi-platform-lshc-web/src/main/webapp/temp.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/job/拉萨项目/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC13063-A5F6-3E4F-BB8F-6513FF2862DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" xr2:uid="{F9345F4F-7C26-2A4E-BC63-2A0351509794}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>项目（小区）名称</t>
   </si>
@@ -142,9 +136,6 @@
   </si>
   <si>
     <t>证件号码</t>
-  </si>
-  <si>
-    <t>职业</t>
   </si>
   <si>
     <t>填报单位</t>
@@ -165,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -272,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -324,7 +315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -518,51 +509,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E647379F-637A-0348-91B1-80FABF647B1E}">
-  <dimension ref="A1:AS1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AR1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="AS1" sqref="AS1:AS1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="81.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="81.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.125" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -613,10 +604,10 @@
         <v>15</v>
       </c>
       <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
         <v>43</v>
-      </c>
-      <c r="U1" t="s">
-        <v>44</v>
       </c>
       <c r="V1" t="s">
         <v>16</v>
@@ -686,13 +677,11 @@
       </c>
       <c r="AR1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/funi-platform-lshc-web/src/main/webapp/temp.xlsx
+++ b/funi-platform-lshc-web/src/main/webapp/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>填报单位</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>居住人口数量</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -480,22 +484,22 @@
     <col min="5" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="36.5" customWidth="1"/>
-    <col min="19" max="19" width="18.625" customWidth="1"/>
-    <col min="25" max="25" width="81.375" customWidth="1"/>
-    <col min="26" max="27" width="16.875" customWidth="1"/>
-    <col min="28" max="29" width="13.125" customWidth="1"/>
-    <col min="30" max="30" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="11.625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="14.125" customWidth="1"/>
-    <col min="39" max="40" width="10" customWidth="1"/>
-    <col min="41" max="42" width="14.125" style="1" customWidth="1"/>
-    <col min="49" max="49" width="13" customWidth="1"/>
-    <col min="52" max="52" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="20.75" customWidth="1"/>
+    <col min="12" max="12" width="36.5" customWidth="1"/>
+    <col min="20" max="20" width="18.625" customWidth="1"/>
+    <col min="26" max="26" width="81.375" customWidth="1"/>
+    <col min="27" max="28" width="16.875" customWidth="1"/>
+    <col min="29" max="30" width="13.125" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="33" max="33" width="11.625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.125" customWidth="1"/>
+    <col min="40" max="41" width="10" customWidth="1"/>
+    <col min="42" max="43" width="14.125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="13" customWidth="1"/>
+    <col min="53" max="53" width="20.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,102 +531,105 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
     </row>
